--- a/data/venue_df.xlsx
+++ b/data/venue_df.xlsx
@@ -476,19 +476,19 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43213</v>
+        <v>43136</v>
       </c>
       <c r="C2" t="n">
-        <v>1136582</v>
+        <v>1136592</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -498,19 +498,19 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43213</v>
+        <v>43136</v>
       </c>
       <c r="C3" t="n">
-        <v>1136582</v>
+        <v>1136592</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,19 +520,19 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43217</v>
+        <v>43213</v>
       </c>
       <c r="C4" t="n">
-        <v>1136586</v>
+        <v>1136582</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43217</v>
+        <v>43213</v>
       </c>
       <c r="C5" t="n">
-        <v>1136586</v>
+        <v>1136582</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43222</v>
+        <v>43217</v>
       </c>
       <c r="C6" t="n">
-        <v>1136592</v>
+        <v>1136586</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43222</v>
+        <v>43217</v>
       </c>
       <c r="C7" t="n">
-        <v>1136592</v>
+        <v>1136586</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -608,19 +608,19 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43230</v>
+        <v>43238</v>
       </c>
       <c r="C8" t="n">
-        <v>1136602</v>
+        <v>1136612</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -630,19 +630,19 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43230</v>
+        <v>43238</v>
       </c>
       <c r="C9" t="n">
-        <v>1136602</v>
+        <v>1136612</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43232</v>
+        <v>43240</v>
       </c>
       <c r="C10" t="n">
-        <v>1136605</v>
+        <v>1136615</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -674,19 +674,19 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43232</v>
+        <v>43240</v>
       </c>
       <c r="C11" t="n">
-        <v>1136605</v>
+        <v>1136615</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -696,19 +696,19 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43238</v>
+        <v>43378</v>
       </c>
       <c r="C12" t="n">
-        <v>1136612</v>
+        <v>1136602</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -718,19 +718,19 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43238</v>
+        <v>43378</v>
       </c>
       <c r="C13" t="n">
-        <v>1136612</v>
+        <v>1136602</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43240</v>
+        <v>43439</v>
       </c>
       <c r="C14" t="n">
-        <v>1136615</v>
+        <v>1136605</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -762,19 +762,19 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43240</v>
+        <v>43439</v>
       </c>
       <c r="C15" t="n">
-        <v>1136615</v>
+        <v>1136605</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -916,19 +916,19 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43573</v>
+        <v>43560</v>
       </c>
       <c r="C22" t="n">
-        <v>1178409</v>
+        <v>1178428</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -938,19 +938,19 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43573</v>
+        <v>43560</v>
       </c>
       <c r="C23" t="n">
-        <v>1178409</v>
+        <v>1178428</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -960,19 +960,19 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43575</v>
+        <v>43573</v>
       </c>
       <c r="C24" t="n">
-        <v>1178412</v>
+        <v>1178409</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -982,19 +982,19 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43575</v>
+        <v>43573</v>
       </c>
       <c r="C25" t="n">
-        <v>1178412</v>
+        <v>1178409</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1004,19 +1004,19 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43583</v>
+        <v>43575</v>
       </c>
       <c r="C26" t="n">
-        <v>1178421</v>
+        <v>1178412</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43583</v>
+        <v>43575</v>
       </c>
       <c r="C27" t="n">
-        <v>1178421</v>
+        <v>1178412</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1048,19 +1048,19 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43589</v>
+        <v>43583</v>
       </c>
       <c r="C28" t="n">
-        <v>1178428</v>
+        <v>1178421</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1070,19 +1070,19 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43589</v>
+        <v>43583</v>
       </c>
       <c r="C29" t="n">
-        <v>1178428</v>
+        <v>1178421</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43593</v>
+        <v>43682</v>
       </c>
       <c r="C30" t="n">
         <v>1181766</v>
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43593</v>
+        <v>43682</v>
       </c>
       <c r="C31" t="n">
         <v>1181766</v>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43595</v>
+        <v>43743</v>
       </c>
       <c r="C32" t="n">
         <v>1181767</v>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43595</v>
+        <v>43743</v>
       </c>
       <c r="C33" t="n">
         <v>1181767</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44094</v>
+        <v>43841</v>
       </c>
       <c r="C34" t="n">
-        <v>1216493</v>
+        <v>1216530</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1202,19 +1202,19 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44094</v>
+        <v>43841</v>
       </c>
       <c r="C35" t="n">
-        <v>1216493</v>
+        <v>1216530</v>
       </c>
       <c r="D35" t="n">
         <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1224,19 +1224,19 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44095</v>
+        <v>43871</v>
       </c>
       <c r="C36" t="n">
-        <v>1216534</v>
+        <v>1216516</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1246,19 +1246,19 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44095</v>
+        <v>43871</v>
       </c>
       <c r="C37" t="n">
-        <v>1216534</v>
+        <v>1216516</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1268,16 +1268,16 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44098</v>
+        <v>43931</v>
       </c>
       <c r="C38" t="n">
-        <v>1216510</v>
+        <v>1216513</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44098</v>
+        <v>43931</v>
       </c>
       <c r="C39" t="n">
-        <v>1216510</v>
+        <v>1216513</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1312,16 +1312,16 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44099</v>
+        <v>43961</v>
       </c>
       <c r="C40" t="n">
-        <v>1216539</v>
+        <v>1216519</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1334,19 +1334,19 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44099</v>
+        <v>43961</v>
       </c>
       <c r="C41" t="n">
-        <v>1216539</v>
+        <v>1216519</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1356,19 +1356,19 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44102</v>
+        <v>43962</v>
       </c>
       <c r="C42" t="n">
-        <v>1216547</v>
+        <v>1237177</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1378,19 +1378,19 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44102</v>
+        <v>43962</v>
       </c>
       <c r="C43" t="n">
-        <v>1216547</v>
+        <v>1237177</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1400,19 +1400,19 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44104</v>
+        <v>44053</v>
       </c>
       <c r="C44" t="n">
-        <v>1216504</v>
+        <v>1216542</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1422,16 +1422,16 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44104</v>
+        <v>44053</v>
       </c>
       <c r="C45" t="n">
-        <v>1216504</v>
+        <v>1216542</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F45" t="n">
         <v>2</v>
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44106</v>
+        <v>44094</v>
       </c>
       <c r="C46" t="n">
-        <v>1216516</v>
+        <v>1216493</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44106</v>
+        <v>44094</v>
       </c>
       <c r="C47" t="n">
-        <v>1216516</v>
+        <v>1216493</v>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44108</v>
+        <v>44095</v>
       </c>
       <c r="C48" t="n">
-        <v>1216513</v>
+        <v>1216534</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1510,19 +1510,19 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44108</v>
+        <v>44095</v>
       </c>
       <c r="C49" t="n">
-        <v>1216513</v>
+        <v>1216534</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1532,16 +1532,16 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44109</v>
+        <v>44098</v>
       </c>
       <c r="C50" t="n">
-        <v>1216519</v>
+        <v>1216510</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -1554,16 +1554,16 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44109</v>
+        <v>44098</v>
       </c>
       <c r="C51" t="n">
-        <v>1216519</v>
+        <v>1216510</v>
       </c>
       <c r="D51" t="n">
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
@@ -1576,16 +1576,16 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44112</v>
+        <v>44099</v>
       </c>
       <c r="C52" t="n">
-        <v>1216542</v>
+        <v>1216539</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -1598,16 +1598,16 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44112</v>
+        <v>44099</v>
       </c>
       <c r="C53" t="n">
-        <v>1216542</v>
+        <v>1216539</v>
       </c>
       <c r="D53" t="n">
         <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F53" t="n">
         <v>2</v>
@@ -1620,19 +1620,19 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44114</v>
+        <v>44102</v>
       </c>
       <c r="C54" t="n">
-        <v>1216525</v>
+        <v>1216547</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1642,16 +1642,16 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44114</v>
+        <v>44102</v>
       </c>
       <c r="C55" t="n">
-        <v>1216525</v>
+        <v>1216547</v>
       </c>
       <c r="D55" t="n">
         <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F55" t="n">
         <v>2</v>
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44115</v>
+        <v>44104</v>
       </c>
       <c r="C56" t="n">
-        <v>1216507</v>
+        <v>1216504</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -1686,19 +1686,19 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44115</v>
+        <v>44104</v>
       </c>
       <c r="C57" t="n">
-        <v>1216507</v>
+        <v>1216504</v>
       </c>
       <c r="D57" t="n">
         <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1708,19 +1708,19 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44117</v>
+        <v>44114</v>
       </c>
       <c r="C58" t="n">
-        <v>1216528</v>
+        <v>1216525</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44117</v>
+        <v>44114</v>
       </c>
       <c r="C59" t="n">
-        <v>1216528</v>
+        <v>1216525</v>
       </c>
       <c r="D59" t="n">
         <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F59" t="n">
         <v>2</v>
@@ -1752,19 +1752,19 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44118</v>
+        <v>44115</v>
       </c>
       <c r="C60" t="n">
-        <v>1216543</v>
+        <v>1237181</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44118</v>
+        <v>44115</v>
       </c>
       <c r="C61" t="n">
-        <v>1216543</v>
+        <v>1237181</v>
       </c>
       <c r="D61" t="n">
         <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44121</v>
+        <v>44117</v>
       </c>
       <c r="C62" t="n">
-        <v>1216522</v>
+        <v>1216528</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -1818,19 +1818,19 @@
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44121</v>
+        <v>44117</v>
       </c>
       <c r="C63" t="n">
-        <v>1216522</v>
+        <v>1216528</v>
       </c>
       <c r="D63" t="n">
         <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1840,19 +1840,19 @@
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44122</v>
+        <v>44118</v>
       </c>
       <c r="C64" t="n">
-        <v>1216517</v>
+        <v>1216543</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -1862,19 +1862,19 @@
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44122</v>
+        <v>44118</v>
       </c>
       <c r="C65" t="n">
-        <v>1216517</v>
+        <v>1216543</v>
       </c>
       <c r="D65" t="n">
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44124</v>
+        <v>44121</v>
       </c>
       <c r="C66" t="n">
-        <v>1216546</v>
+        <v>1216522</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -1906,19 +1906,19 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44124</v>
+        <v>44121</v>
       </c>
       <c r="C67" t="n">
-        <v>1216546</v>
+        <v>1216522</v>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1928,19 +1928,19 @@
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44126</v>
+        <v>44122</v>
       </c>
       <c r="C68" t="n">
-        <v>1216518</v>
+        <v>1216517</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -1950,19 +1950,19 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44126</v>
+        <v>44122</v>
       </c>
       <c r="C69" t="n">
-        <v>1216518</v>
+        <v>1216517</v>
       </c>
       <c r="D69" t="n">
         <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1972,16 +1972,16 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44128</v>
+        <v>44124</v>
       </c>
       <c r="C70" t="n">
-        <v>1216498</v>
+        <v>1216546</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -1994,19 +1994,19 @@
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44128</v>
+        <v>44124</v>
       </c>
       <c r="C71" t="n">
-        <v>1216498</v>
+        <v>1216546</v>
       </c>
       <c r="D71" t="n">
         <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -2016,16 +2016,16 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44129</v>
+        <v>44126</v>
       </c>
       <c r="C72" t="n">
-        <v>1216544</v>
+        <v>1216518</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -2038,19 +2038,19 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44129</v>
+        <v>44126</v>
       </c>
       <c r="C73" t="n">
-        <v>1216544</v>
+        <v>1216518</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2060,19 +2060,19 @@
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44131</v>
+        <v>44128</v>
       </c>
       <c r="C74" t="n">
-        <v>1216524</v>
+        <v>1216498</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2082,19 +2082,19 @@
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44131</v>
+        <v>44128</v>
       </c>
       <c r="C75" t="n">
-        <v>1216524</v>
+        <v>1216498</v>
       </c>
       <c r="D75" t="n">
         <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44133</v>
+        <v>44129</v>
       </c>
       <c r="C76" t="n">
-        <v>1216536</v>
+        <v>1216544</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2126,19 +2126,19 @@
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44133</v>
+        <v>44129</v>
       </c>
       <c r="C77" t="n">
-        <v>1216536</v>
+        <v>1216544</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2148,19 +2148,19 @@
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44135</v>
+        <v>44131</v>
       </c>
       <c r="C78" t="n">
-        <v>1216535</v>
+        <v>1216524</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2170,19 +2170,19 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44135</v>
+        <v>44131</v>
       </c>
       <c r="C79" t="n">
-        <v>1216535</v>
+        <v>1216524</v>
       </c>
       <c r="D79" t="n">
         <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -2192,19 +2192,19 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44136</v>
+        <v>44133</v>
       </c>
       <c r="C80" t="n">
-        <v>1216530</v>
+        <v>1216536</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2214,19 +2214,19 @@
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44136</v>
+        <v>44133</v>
       </c>
       <c r="C81" t="n">
-        <v>1216530</v>
+        <v>1216536</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44140</v>
+        <v>44135</v>
       </c>
       <c r="C82" t="n">
-        <v>1237177</v>
+        <v>1216535</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2258,19 +2258,19 @@
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44140</v>
+        <v>44135</v>
       </c>
       <c r="C83" t="n">
-        <v>1237177</v>
+        <v>1216535</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2283,16 +2283,16 @@
         <v>44145</v>
       </c>
       <c r="C84" t="n">
-        <v>1237181</v>
+        <v>1216507</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2305,16 +2305,16 @@
         <v>44145</v>
       </c>
       <c r="C85" t="n">
-        <v>1237181</v>
+        <v>1216507</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -2324,16 +2324,16 @@
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>43198</v>
+        <v>43164</v>
       </c>
       <c r="C86" t="n">
-        <v>1136563</v>
+        <v>1136593</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -2346,16 +2346,16 @@
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>43198</v>
+        <v>43164</v>
       </c>
       <c r="C87" t="n">
-        <v>1136563</v>
+        <v>1136593</v>
       </c>
       <c r="D87" t="n">
         <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F87" t="n">
         <v>2</v>
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>43223</v>
+        <v>43235</v>
       </c>
       <c r="C94" t="n">
-        <v>1136593</v>
+        <v>1136609</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -2522,16 +2522,16 @@
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>43223</v>
+        <v>43235</v>
       </c>
       <c r="C95" t="n">
-        <v>1136593</v>
+        <v>1136609</v>
       </c>
       <c r="D95" t="n">
         <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F95" t="n">
         <v>2</v>
@@ -2544,19 +2544,19 @@
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>43229</v>
+        <v>43243</v>
       </c>
       <c r="C96" t="n">
-        <v>1136601</v>
+        <v>1136618</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -2566,19 +2566,19 @@
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>43229</v>
+        <v>43243</v>
       </c>
       <c r="C97" t="n">
-        <v>1136601</v>
+        <v>1136618</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2588,19 +2588,19 @@
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>43235</v>
+        <v>43245</v>
       </c>
       <c r="C98" t="n">
-        <v>1136609</v>
+        <v>1136619</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2610,19 +2610,19 @@
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>43235</v>
+        <v>43245</v>
       </c>
       <c r="C99" t="n">
-        <v>1136609</v>
+        <v>1136619</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2632,19 +2632,19 @@
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>43243</v>
+        <v>43316</v>
       </c>
       <c r="C100" t="n">
-        <v>1136618</v>
+        <v>1136563</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2654,19 +2654,19 @@
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>43243</v>
+        <v>43316</v>
       </c>
       <c r="C101" t="n">
-        <v>1136618</v>
+        <v>1136563</v>
       </c>
       <c r="D101" t="n">
         <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -2676,19 +2676,19 @@
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>43245</v>
+        <v>43348</v>
       </c>
       <c r="C102" t="n">
-        <v>1136619</v>
+        <v>1136601</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2698,19 +2698,19 @@
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>43245</v>
+        <v>43348</v>
       </c>
       <c r="C103" t="n">
-        <v>1136619</v>
+        <v>1136601</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2808,16 +2808,16 @@
         </is>
       </c>
       <c r="B108" s="2" t="n">
-        <v>43567</v>
+        <v>43569</v>
       </c>
       <c r="C108" t="n">
-        <v>1178401</v>
+        <v>1178404</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -2830,16 +2830,16 @@
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>43567</v>
+        <v>43569</v>
       </c>
       <c r="C109" t="n">
-        <v>1178401</v>
+        <v>1178404</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F109" t="n">
         <v>2</v>
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="B110" s="2" t="n">
-        <v>43569</v>
+        <v>43574</v>
       </c>
       <c r="C110" t="n">
-        <v>1178404</v>
+        <v>1178410</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -2874,19 +2874,19 @@
         </is>
       </c>
       <c r="B111" s="2" t="n">
-        <v>43569</v>
+        <v>43574</v>
       </c>
       <c r="C111" t="n">
-        <v>1178404</v>
+        <v>1178410</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -2896,19 +2896,19 @@
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>43574</v>
+        <v>43580</v>
       </c>
       <c r="C112" t="n">
-        <v>1178410</v>
+        <v>1178418</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2918,19 +2918,19 @@
         </is>
       </c>
       <c r="B113" s="2" t="n">
-        <v>43574</v>
+        <v>43580</v>
       </c>
       <c r="C113" t="n">
-        <v>1178410</v>
+        <v>1178418</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2940,19 +2940,19 @@
         </is>
       </c>
       <c r="B114" s="2" t="n">
-        <v>43580</v>
+        <v>43583</v>
       </c>
       <c r="C114" t="n">
-        <v>1178418</v>
+        <v>1178422</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="B115" s="2" t="n">
-        <v>43580</v>
+        <v>43583</v>
       </c>
       <c r="C115" t="n">
-        <v>1178418</v>
+        <v>1178422</v>
       </c>
       <c r="D115" t="n">
         <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -2984,19 +2984,19 @@
         </is>
       </c>
       <c r="B116" s="2" t="n">
-        <v>43583</v>
+        <v>43803</v>
       </c>
       <c r="C116" t="n">
-        <v>1178422</v>
+        <v>1178401</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3006,16 +3006,16 @@
         </is>
       </c>
       <c r="B117" s="2" t="n">
-        <v>43583</v>
+        <v>43803</v>
       </c>
       <c r="C117" t="n">
-        <v>1178422</v>
+        <v>1178401</v>
       </c>
       <c r="D117" t="n">
         <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F117" t="n">
         <v>2</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B118" s="2" t="n">
-        <v>43224</v>
+        <v>43195</v>
       </c>
       <c r="C118" t="n">
         <v>1136594</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="B119" s="2" t="n">
-        <v>43224</v>
+        <v>43195</v>
       </c>
       <c r="C119" t="n">
         <v>1136594</v>
@@ -3072,19 +3072,19 @@
         </is>
       </c>
       <c r="B120" s="2" t="n">
-        <v>43226</v>
+        <v>43234</v>
       </c>
       <c r="C120" t="n">
-        <v>1136598</v>
+        <v>1136608</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -3094,19 +3094,19 @@
         </is>
       </c>
       <c r="B121" s="2" t="n">
-        <v>43226</v>
+        <v>43234</v>
       </c>
       <c r="C121" t="n">
-        <v>1136598</v>
+        <v>1136608</v>
       </c>
       <c r="D121" t="n">
         <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3116,19 +3116,19 @@
         </is>
       </c>
       <c r="B122" s="2" t="n">
-        <v>43232</v>
+        <v>43256</v>
       </c>
       <c r="C122" t="n">
-        <v>1136604</v>
+        <v>1136598</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3138,16 +3138,16 @@
         </is>
       </c>
       <c r="B123" s="2" t="n">
-        <v>43232</v>
+        <v>43256</v>
       </c>
       <c r="C123" t="n">
-        <v>1136604</v>
+        <v>1136598</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F123" t="n">
         <v>2</v>
@@ -3160,19 +3160,19 @@
         </is>
       </c>
       <c r="B124" s="2" t="n">
-        <v>43234</v>
+        <v>43439</v>
       </c>
       <c r="C124" t="n">
-        <v>1136608</v>
+        <v>1136604</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3182,19 +3182,19 @@
         </is>
       </c>
       <c r="B125" s="2" t="n">
-        <v>43234</v>
+        <v>43439</v>
       </c>
       <c r="C125" t="n">
-        <v>1136608</v>
+        <v>1136604</v>
       </c>
       <c r="D125" t="n">
         <v>2</v>
       </c>
       <c r="E125" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3204,19 +3204,19 @@
         </is>
       </c>
       <c r="B126" s="2" t="n">
-        <v>43203</v>
+        <v>43105</v>
       </c>
       <c r="C126" t="n">
-        <v>1136568</v>
+        <v>1136591</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3226,19 +3226,19 @@
         </is>
       </c>
       <c r="B127" s="2" t="n">
-        <v>43203</v>
+        <v>43105</v>
       </c>
       <c r="C127" t="n">
-        <v>1136568</v>
+        <v>1136591</v>
       </c>
       <c r="D127" t="n">
         <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -3248,19 +3248,19 @@
         </is>
       </c>
       <c r="B128" s="2" t="n">
-        <v>43205</v>
+        <v>43203</v>
       </c>
       <c r="C128" t="n">
-        <v>1136571</v>
+        <v>1136568</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -3270,19 +3270,19 @@
         </is>
       </c>
       <c r="B129" s="2" t="n">
-        <v>43205</v>
+        <v>43203</v>
       </c>
       <c r="C129" t="n">
-        <v>1136571</v>
+        <v>1136568</v>
       </c>
       <c r="D129" t="n">
         <v>2</v>
       </c>
       <c r="E129" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -3292,19 +3292,19 @@
         </is>
       </c>
       <c r="B130" s="2" t="n">
-        <v>43211</v>
+        <v>43205</v>
       </c>
       <c r="C130" t="n">
-        <v>1136579</v>
+        <v>1136571</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3314,19 +3314,19 @@
         </is>
       </c>
       <c r="B131" s="2" t="n">
-        <v>43211</v>
+        <v>43205</v>
       </c>
       <c r="C131" t="n">
-        <v>1136579</v>
+        <v>1136571</v>
       </c>
       <c r="D131" t="n">
         <v>2</v>
       </c>
       <c r="E131" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -3336,19 +3336,19 @@
         </is>
       </c>
       <c r="B132" s="2" t="n">
-        <v>43215</v>
+        <v>43211</v>
       </c>
       <c r="C132" t="n">
-        <v>1136584</v>
+        <v>1136579</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -3358,16 +3358,16 @@
         </is>
       </c>
       <c r="B133" s="2" t="n">
-        <v>43215</v>
+        <v>43211</v>
       </c>
       <c r="C133" t="n">
-        <v>1136584</v>
+        <v>1136579</v>
       </c>
       <c r="D133" t="n">
         <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F133" t="n">
         <v>2</v>
@@ -3380,19 +3380,19 @@
         </is>
       </c>
       <c r="B134" s="2" t="n">
-        <v>43219</v>
+        <v>43215</v>
       </c>
       <c r="C134" t="n">
-        <v>1136589</v>
+        <v>1136584</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3402,19 +3402,19 @@
         </is>
       </c>
       <c r="B135" s="2" t="n">
-        <v>43219</v>
+        <v>43215</v>
       </c>
       <c r="C135" t="n">
-        <v>1136589</v>
+        <v>1136584</v>
       </c>
       <c r="D135" t="n">
         <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -3424,19 +3424,19 @@
         </is>
       </c>
       <c r="B136" s="2" t="n">
-        <v>43221</v>
+        <v>43219</v>
       </c>
       <c r="C136" t="n">
-        <v>1136591</v>
+        <v>1136589</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3446,19 +3446,19 @@
         </is>
       </c>
       <c r="B137" s="2" t="n">
-        <v>43221</v>
+        <v>43219</v>
       </c>
       <c r="C137" t="n">
-        <v>1136591</v>
+        <v>1136589</v>
       </c>
       <c r="D137" t="n">
         <v>2</v>
       </c>
       <c r="E137" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3559,16 +3559,16 @@
         <v>43560</v>
       </c>
       <c r="C142" t="n">
-        <v>1175372</v>
+        <v>1178429</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3581,16 +3581,16 @@
         <v>43560</v>
       </c>
       <c r="C143" t="n">
-        <v>1175372</v>
+        <v>1178429</v>
       </c>
       <c r="D143" t="n">
         <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -3600,19 +3600,19 @@
         </is>
       </c>
       <c r="B144" s="2" t="n">
-        <v>43562</v>
+        <v>43576</v>
       </c>
       <c r="C144" t="n">
-        <v>1178395</v>
+        <v>1178414</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -3622,19 +3622,19 @@
         </is>
       </c>
       <c r="B145" s="2" t="n">
-        <v>43562</v>
+        <v>43576</v>
       </c>
       <c r="C145" t="n">
-        <v>1178395</v>
+        <v>1178414</v>
       </c>
       <c r="D145" t="n">
         <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="B146" s="2" t="n">
-        <v>43576</v>
+        <v>43579</v>
       </c>
       <c r="C146" t="n">
-        <v>1178414</v>
+        <v>1178417</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -3666,19 +3666,19 @@
         </is>
       </c>
       <c r="B147" s="2" t="n">
-        <v>43576</v>
+        <v>43579</v>
       </c>
       <c r="C147" t="n">
-        <v>1178414</v>
+        <v>1178417</v>
       </c>
       <c r="D147" t="n">
         <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3688,19 +3688,19 @@
         </is>
       </c>
       <c r="B148" s="2" t="n">
-        <v>43579</v>
+        <v>43585</v>
       </c>
       <c r="C148" t="n">
-        <v>1178417</v>
+        <v>1178424</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
@@ -3710,16 +3710,16 @@
         </is>
       </c>
       <c r="B149" s="2" t="n">
-        <v>43579</v>
+        <v>43585</v>
       </c>
       <c r="C149" t="n">
-        <v>1178417</v>
+        <v>1178424</v>
       </c>
       <c r="D149" t="n">
         <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -3732,19 +3732,19 @@
         </is>
       </c>
       <c r="B150" s="2" t="n">
-        <v>43585</v>
+        <v>43589</v>
       </c>
       <c r="C150" t="n">
-        <v>1178424</v>
+        <v>1175372</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F150" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B151" s="2" t="n">
-        <v>43585</v>
+        <v>43589</v>
       </c>
       <c r="C151" t="n">
-        <v>1178424</v>
+        <v>1175372</v>
       </c>
       <c r="D151" t="n">
         <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -3776,19 +3776,19 @@
         </is>
       </c>
       <c r="B152" s="2" t="n">
-        <v>43589</v>
+        <v>43650</v>
       </c>
       <c r="C152" t="n">
-        <v>1178429</v>
+        <v>1178395</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -3798,19 +3798,19 @@
         </is>
       </c>
       <c r="B153" s="2" t="n">
-        <v>43589</v>
+        <v>43650</v>
       </c>
       <c r="C153" t="n">
-        <v>1178429</v>
+        <v>1178395</v>
       </c>
       <c r="D153" t="n">
         <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="B154" s="2" t="n">
-        <v>43200</v>
+        <v>43377</v>
       </c>
       <c r="C154" t="n">
         <v>1136565</v>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B155" s="2" t="n">
-        <v>43200</v>
+        <v>43377</v>
       </c>
       <c r="C155" t="n">
         <v>1136565</v>
@@ -3864,19 +3864,19 @@
         </is>
       </c>
       <c r="B156" s="2" t="n">
-        <v>43547</v>
+        <v>43470</v>
       </c>
       <c r="C156" t="n">
-        <v>1175356</v>
+        <v>1178425</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -3886,19 +3886,19 @@
         </is>
       </c>
       <c r="B157" s="2" t="n">
-        <v>43547</v>
+        <v>43470</v>
       </c>
       <c r="C157" t="n">
-        <v>1175356</v>
+        <v>1178425</v>
       </c>
       <c r="D157" t="n">
         <v>2</v>
       </c>
       <c r="E157" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -3908,19 +3908,19 @@
         </is>
       </c>
       <c r="B158" s="2" t="n">
-        <v>43555</v>
+        <v>43547</v>
       </c>
       <c r="C158" t="n">
-        <v>1175367</v>
+        <v>1175356</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -3930,19 +3930,19 @@
         </is>
       </c>
       <c r="B159" s="2" t="n">
-        <v>43555</v>
+        <v>43547</v>
       </c>
       <c r="C159" t="n">
-        <v>1175367</v>
+        <v>1175356</v>
       </c>
       <c r="D159" t="n">
         <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -3952,19 +3952,19 @@
         </is>
       </c>
       <c r="B160" s="2" t="n">
-        <v>43561</v>
+        <v>43555</v>
       </c>
       <c r="C160" t="n">
-        <v>1178393</v>
+        <v>1175367</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B161" s="2" t="n">
-        <v>43561</v>
+        <v>43555</v>
       </c>
       <c r="C161" t="n">
-        <v>1178393</v>
+        <v>1175367</v>
       </c>
       <c r="D161" t="n">
         <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -3996,19 +3996,19 @@
         </is>
       </c>
       <c r="B162" s="2" t="n">
-        <v>43564</v>
+        <v>43578</v>
       </c>
       <c r="C162" t="n">
-        <v>1178398</v>
+        <v>1178416</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -4018,19 +4018,19 @@
         </is>
       </c>
       <c r="B163" s="2" t="n">
-        <v>43564</v>
+        <v>43578</v>
       </c>
       <c r="C163" t="n">
-        <v>1178398</v>
+        <v>1178416</v>
       </c>
       <c r="D163" t="n">
         <v>2</v>
       </c>
       <c r="E163" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -4040,16 +4040,16 @@
         </is>
       </c>
       <c r="B164" s="2" t="n">
-        <v>43578</v>
+        <v>43581</v>
       </c>
       <c r="C164" t="n">
-        <v>1178416</v>
+        <v>1178419</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
@@ -4062,19 +4062,19 @@
         </is>
       </c>
       <c r="B165" s="2" t="n">
-        <v>43578</v>
+        <v>43581</v>
       </c>
       <c r="C165" t="n">
-        <v>1178416</v>
+        <v>1178419</v>
       </c>
       <c r="D165" t="n">
         <v>2</v>
       </c>
       <c r="E165" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -4084,19 +4084,19 @@
         </is>
       </c>
       <c r="B166" s="2" t="n">
-        <v>43581</v>
+        <v>43620</v>
       </c>
       <c r="C166" t="n">
-        <v>1178419</v>
+        <v>1178393</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -4106,19 +4106,19 @@
         </is>
       </c>
       <c r="B167" s="2" t="n">
-        <v>43581</v>
+        <v>43620</v>
       </c>
       <c r="C167" t="n">
-        <v>1178419</v>
+        <v>1178393</v>
       </c>
       <c r="D167" t="n">
         <v>2</v>
       </c>
       <c r="E167" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -4128,19 +4128,19 @@
         </is>
       </c>
       <c r="B168" s="2" t="n">
-        <v>43586</v>
+        <v>43651</v>
       </c>
       <c r="C168" t="n">
-        <v>1178425</v>
+        <v>1181764</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -4150,16 +4150,16 @@
         </is>
       </c>
       <c r="B169" s="2" t="n">
-        <v>43586</v>
+        <v>43651</v>
       </c>
       <c r="C169" t="n">
-        <v>1178425</v>
+        <v>1181764</v>
       </c>
       <c r="D169" t="n">
         <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F169" t="n">
         <v>2</v>
@@ -4172,19 +4172,19 @@
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>43592</v>
+        <v>43712</v>
       </c>
       <c r="C170" t="n">
-        <v>1181764</v>
+        <v>1178398</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171">
@@ -4194,16 +4194,16 @@
         </is>
       </c>
       <c r="B171" s="2" t="n">
-        <v>43592</v>
+        <v>43712</v>
       </c>
       <c r="C171" t="n">
-        <v>1181764</v>
+        <v>1178398</v>
       </c>
       <c r="D171" t="n">
         <v>2</v>
       </c>
       <c r="E171" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F171" t="n">
         <v>2</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44295</v>
+        <v>44443</v>
       </c>
       <c r="C172" t="n">
         <v>1254058</v>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="B173" s="2" t="n">
-        <v>44295</v>
+        <v>44443</v>
       </c>
       <c r="C173" t="n">
         <v>1254058</v>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="B174" s="2" t="n">
-        <v>44297</v>
+        <v>44504</v>
       </c>
       <c r="C174" t="n">
         <v>1254060</v>
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B175" s="2" t="n">
-        <v>44297</v>
+        <v>44504</v>
       </c>
       <c r="C175" t="n">
         <v>1254060</v>
@@ -4568,19 +4568,19 @@
         </is>
       </c>
       <c r="B188" s="2" t="n">
-        <v>43198</v>
+        <v>43205</v>
       </c>
       <c r="C188" t="n">
-        <v>1136562</v>
+        <v>1136572</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B189" s="2" t="n">
-        <v>43198</v>
+        <v>43205</v>
       </c>
       <c r="C189" t="n">
-        <v>1136562</v>
+        <v>1136572</v>
       </c>
       <c r="D189" t="n">
         <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F189" t="n">
         <v>2</v>
@@ -4612,16 +4612,16 @@
         </is>
       </c>
       <c r="B190" s="2" t="n">
-        <v>43205</v>
+        <v>43209</v>
       </c>
       <c r="C190" t="n">
-        <v>1136572</v>
+        <v>1136576</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -4634,19 +4634,19 @@
         </is>
       </c>
       <c r="B191" s="2" t="n">
-        <v>43205</v>
+        <v>43209</v>
       </c>
       <c r="C191" t="n">
-        <v>1136572</v>
+        <v>1136576</v>
       </c>
       <c r="D191" t="n">
         <v>2</v>
       </c>
       <c r="E191" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -4656,19 +4656,19 @@
         </is>
       </c>
       <c r="B192" s="2" t="n">
-        <v>43209</v>
+        <v>43316</v>
       </c>
       <c r="C192" t="n">
-        <v>1136576</v>
+        <v>1136562</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4678,19 +4678,19 @@
         </is>
       </c>
       <c r="B193" s="2" t="n">
-        <v>43209</v>
+        <v>43316</v>
       </c>
       <c r="C193" t="n">
-        <v>1136576</v>
+        <v>1136562</v>
       </c>
       <c r="D193" t="n">
         <v>2</v>
       </c>
       <c r="E193" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -4700,19 +4700,19 @@
         </is>
       </c>
       <c r="B194" s="2" t="n">
-        <v>43554</v>
+        <v>43469</v>
       </c>
       <c r="C194" t="n">
-        <v>1175364</v>
+        <v>1175368</v>
       </c>
       <c r="D194" t="n">
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -4722,19 +4722,19 @@
         </is>
       </c>
       <c r="B195" s="2" t="n">
-        <v>43554</v>
+        <v>43469</v>
       </c>
       <c r="C195" t="n">
-        <v>1175364</v>
+        <v>1175368</v>
       </c>
       <c r="D195" t="n">
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4744,16 +4744,16 @@
         </is>
       </c>
       <c r="B196" s="2" t="n">
-        <v>43556</v>
+        <v>43529</v>
       </c>
       <c r="C196" t="n">
-        <v>1175368</v>
+        <v>1178427</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F196" t="n">
         <v>2</v>
@@ -4766,16 +4766,16 @@
         </is>
       </c>
       <c r="B197" s="2" t="n">
-        <v>43556</v>
+        <v>43529</v>
       </c>
       <c r="C197" t="n">
-        <v>1175368</v>
+        <v>1178427</v>
       </c>
       <c r="D197" t="n">
         <v>2</v>
       </c>
       <c r="E197" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -4788,16 +4788,16 @@
         </is>
       </c>
       <c r="B198" s="2" t="n">
-        <v>43563</v>
+        <v>43554</v>
       </c>
       <c r="C198" t="n">
-        <v>1178397</v>
+        <v>1175364</v>
       </c>
       <c r="D198" t="n">
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -4810,10 +4810,10 @@
         </is>
       </c>
       <c r="B199" s="2" t="n">
-        <v>43563</v>
+        <v>43554</v>
       </c>
       <c r="C199" t="n">
-        <v>1178397</v>
+        <v>1175364</v>
       </c>
       <c r="D199" t="n">
         <v>2</v>
@@ -4822,7 +4822,7 @@
         <v>38</v>
       </c>
       <c r="F199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4920,19 +4920,19 @@
         </is>
       </c>
       <c r="B204" s="2" t="n">
-        <v>43588</v>
+        <v>43590</v>
       </c>
       <c r="C204" t="n">
-        <v>1178427</v>
+        <v>1178430</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -4942,19 +4942,19 @@
         </is>
       </c>
       <c r="B205" s="2" t="n">
-        <v>43588</v>
+        <v>43590</v>
       </c>
       <c r="C205" t="n">
-        <v>1178427</v>
+        <v>1178430</v>
       </c>
       <c r="D205" t="n">
         <v>2</v>
       </c>
       <c r="E205" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -4964,16 +4964,16 @@
         </is>
       </c>
       <c r="B206" s="2" t="n">
-        <v>43590</v>
+        <v>43681</v>
       </c>
       <c r="C206" t="n">
-        <v>1178430</v>
+        <v>1178397</v>
       </c>
       <c r="D206" t="n">
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F206" t="n">
         <v>1</v>
@@ -4986,19 +4986,19 @@
         </is>
       </c>
       <c r="B207" s="2" t="n">
-        <v>43590</v>
+        <v>43681</v>
       </c>
       <c r="C207" t="n">
-        <v>1178430</v>
+        <v>1178397</v>
       </c>
       <c r="D207" t="n">
         <v>2</v>
       </c>
       <c r="E207" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B208" s="2" t="n">
-        <v>43199</v>
+        <v>43212</v>
       </c>
       <c r="C208" t="n">
-        <v>1136564</v>
+        <v>1136580</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F208" t="n">
         <v>1</v>
@@ -5030,19 +5030,19 @@
         </is>
       </c>
       <c r="B209" s="2" t="n">
-        <v>43199</v>
+        <v>43212</v>
       </c>
       <c r="C209" t="n">
-        <v>1136564</v>
+        <v>1136580</v>
       </c>
       <c r="D209" t="n">
         <v>2</v>
       </c>
       <c r="E209" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -5052,16 +5052,16 @@
         </is>
       </c>
       <c r="B210" s="2" t="n">
-        <v>43202</v>
+        <v>43216</v>
       </c>
       <c r="C210" t="n">
-        <v>1136567</v>
+        <v>1136585</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F210" t="n">
         <v>3</v>
@@ -5074,16 +5074,16 @@
         </is>
       </c>
       <c r="B211" s="2" t="n">
-        <v>43202</v>
+        <v>43216</v>
       </c>
       <c r="C211" t="n">
-        <v>1136567</v>
+        <v>1136585</v>
       </c>
       <c r="D211" t="n">
         <v>2</v>
       </c>
       <c r="E211" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B212" s="2" t="n">
-        <v>43212</v>
+        <v>43225</v>
       </c>
       <c r="C212" t="n">
-        <v>1136580</v>
+        <v>1136596</v>
       </c>
       <c r="D212" t="n">
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F212" t="n">
         <v>1</v>
@@ -5118,19 +5118,19 @@
         </is>
       </c>
       <c r="B213" s="2" t="n">
-        <v>43212</v>
+        <v>43225</v>
       </c>
       <c r="C213" t="n">
-        <v>1136580</v>
+        <v>1136596</v>
       </c>
       <c r="D213" t="n">
         <v>2</v>
       </c>
       <c r="E213" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -5140,19 +5140,19 @@
         </is>
       </c>
       <c r="B214" s="2" t="n">
-        <v>43216</v>
+        <v>43239</v>
       </c>
       <c r="C214" t="n">
-        <v>1136585</v>
+        <v>1136614</v>
       </c>
       <c r="D214" t="n">
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -5162,19 +5162,19 @@
         </is>
       </c>
       <c r="B215" s="2" t="n">
-        <v>43216</v>
+        <v>43239</v>
       </c>
       <c r="C215" t="n">
-        <v>1136585</v>
+        <v>1136614</v>
       </c>
       <c r="D215" t="n">
         <v>2</v>
       </c>
       <c r="E215" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -5184,19 +5184,19 @@
         </is>
       </c>
       <c r="B216" s="2" t="n">
-        <v>43225</v>
+        <v>43286</v>
       </c>
       <c r="C216" t="n">
-        <v>1136596</v>
+        <v>1136599</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -5206,19 +5206,19 @@
         </is>
       </c>
       <c r="B217" s="2" t="n">
-        <v>43225</v>
+        <v>43286</v>
       </c>
       <c r="C217" t="n">
-        <v>1136596</v>
+        <v>1136599</v>
       </c>
       <c r="D217" t="n">
         <v>2</v>
       </c>
       <c r="E217" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -5228,19 +5228,19 @@
         </is>
       </c>
       <c r="B218" s="2" t="n">
-        <v>43227</v>
+        <v>43347</v>
       </c>
       <c r="C218" t="n">
-        <v>1136599</v>
+        <v>1136564</v>
       </c>
       <c r="D218" t="n">
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -5250,16 +5250,16 @@
         </is>
       </c>
       <c r="B219" s="2" t="n">
-        <v>43227</v>
+        <v>43347</v>
       </c>
       <c r="C219" t="n">
-        <v>1136599</v>
+        <v>1136564</v>
       </c>
       <c r="D219" t="n">
         <v>2</v>
       </c>
       <c r="E219" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -5272,19 +5272,19 @@
         </is>
       </c>
       <c r="B220" s="2" t="n">
-        <v>43239</v>
+        <v>43438</v>
       </c>
       <c r="C220" t="n">
-        <v>1136614</v>
+        <v>1136567</v>
       </c>
       <c r="D220" t="n">
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -5294,19 +5294,19 @@
         </is>
       </c>
       <c r="B221" s="2" t="n">
-        <v>43239</v>
+        <v>43438</v>
       </c>
       <c r="C221" t="n">
-        <v>1136614</v>
+        <v>1136567</v>
       </c>
       <c r="D221" t="n">
         <v>2</v>
       </c>
       <c r="E221" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -5404,16 +5404,16 @@
         </is>
       </c>
       <c r="B226" s="2" t="n">
-        <v>43561</v>
+        <v>43569</v>
       </c>
       <c r="C226" t="n">
-        <v>1178394</v>
+        <v>1178405</v>
       </c>
       <c r="D226" t="n">
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F226" t="n">
         <v>2</v>
@@ -5426,19 +5426,19 @@
         </is>
       </c>
       <c r="B227" s="2" t="n">
-        <v>43561</v>
+        <v>43569</v>
       </c>
       <c r="C227" t="n">
-        <v>1178394</v>
+        <v>1178405</v>
       </c>
       <c r="D227" t="n">
         <v>2</v>
       </c>
       <c r="E227" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5448,19 +5448,19 @@
         </is>
       </c>
       <c r="B228" s="2" t="n">
-        <v>43569</v>
+        <v>43572</v>
       </c>
       <c r="C228" t="n">
-        <v>1178405</v>
+        <v>1178408</v>
       </c>
       <c r="D228" t="n">
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5470,19 +5470,19 @@
         </is>
       </c>
       <c r="B229" s="2" t="n">
-        <v>43569</v>
+        <v>43572</v>
       </c>
       <c r="C229" t="n">
-        <v>1178405</v>
+        <v>1178408</v>
       </c>
       <c r="D229" t="n">
         <v>2</v>
       </c>
       <c r="E229" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -5492,19 +5492,19 @@
         </is>
       </c>
       <c r="B230" s="2" t="n">
-        <v>43572</v>
+        <v>43576</v>
       </c>
       <c r="C230" t="n">
-        <v>1178408</v>
+        <v>1178413</v>
       </c>
       <c r="D230" t="n">
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -5514,19 +5514,19 @@
         </is>
       </c>
       <c r="B231" s="2" t="n">
-        <v>43572</v>
+        <v>43576</v>
       </c>
       <c r="C231" t="n">
-        <v>1178408</v>
+        <v>1178413</v>
       </c>
       <c r="D231" t="n">
         <v>2</v>
       </c>
       <c r="E231" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5536,19 +5536,19 @@
         </is>
       </c>
       <c r="B232" s="2" t="n">
-        <v>43576</v>
+        <v>43584</v>
       </c>
       <c r="C232" t="n">
-        <v>1178413</v>
+        <v>1178423</v>
       </c>
       <c r="D232" t="n">
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5558,19 +5558,19 @@
         </is>
       </c>
       <c r="B233" s="2" t="n">
-        <v>43576</v>
+        <v>43584</v>
       </c>
       <c r="C233" t="n">
-        <v>1178413</v>
+        <v>1178423</v>
       </c>
       <c r="D233" t="n">
         <v>2</v>
       </c>
       <c r="E233" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -5580,19 +5580,19 @@
         </is>
       </c>
       <c r="B234" s="2" t="n">
-        <v>43584</v>
+        <v>43620</v>
       </c>
       <c r="C234" t="n">
-        <v>1178423</v>
+        <v>1178394</v>
       </c>
       <c r="D234" t="n">
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -5602,19 +5602,19 @@
         </is>
       </c>
       <c r="B235" s="2" t="n">
-        <v>43584</v>
+        <v>43620</v>
       </c>
       <c r="C235" t="n">
-        <v>1178423</v>
+        <v>1178394</v>
       </c>
       <c r="D235" t="n">
         <v>2</v>
       </c>
       <c r="E235" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -5624,7 +5624,7 @@
         </is>
       </c>
       <c r="B236" s="2" t="n">
-        <v>43597</v>
+        <v>43804</v>
       </c>
       <c r="C236" t="n">
         <v>1181768</v>
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="B237" s="2" t="n">
-        <v>43597</v>
+        <v>43804</v>
       </c>
       <c r="C237" t="n">
         <v>1181768</v>
@@ -5668,19 +5668,19 @@
         </is>
       </c>
       <c r="B238" s="2" t="n">
-        <v>43201</v>
+        <v>43208</v>
       </c>
       <c r="C238" t="n">
-        <v>1136566</v>
+        <v>1136575</v>
       </c>
       <c r="D238" t="n">
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5690,19 +5690,19 @@
         </is>
       </c>
       <c r="B239" s="2" t="n">
-        <v>43201</v>
+        <v>43208</v>
       </c>
       <c r="C239" t="n">
-        <v>1136566</v>
+        <v>1136575</v>
       </c>
       <c r="D239" t="n">
         <v>2</v>
       </c>
       <c r="E239" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -5712,19 +5712,19 @@
         </is>
       </c>
       <c r="B240" s="2" t="n">
-        <v>43208</v>
+        <v>43212</v>
       </c>
       <c r="C240" t="n">
-        <v>1136575</v>
+        <v>1136581</v>
       </c>
       <c r="D240" t="n">
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -5734,19 +5734,19 @@
         </is>
       </c>
       <c r="B241" s="2" t="n">
-        <v>43208</v>
+        <v>43212</v>
       </c>
       <c r="C241" t="n">
-        <v>1136575</v>
+        <v>1136581</v>
       </c>
       <c r="D241" t="n">
         <v>2</v>
       </c>
       <c r="E241" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -5756,16 +5756,16 @@
         </is>
       </c>
       <c r="B242" s="2" t="n">
-        <v>43212</v>
+        <v>43219</v>
       </c>
       <c r="C242" t="n">
-        <v>1136581</v>
+        <v>1136588</v>
       </c>
       <c r="D242" t="n">
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F242" t="n">
         <v>1</v>
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="B243" s="2" t="n">
-        <v>43212</v>
+        <v>43219</v>
       </c>
       <c r="C243" t="n">
-        <v>1136581</v>
+        <v>1136588</v>
       </c>
       <c r="D243" t="n">
         <v>2</v>
@@ -5790,7 +5790,7 @@
         <v>43</v>
       </c>
       <c r="F243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -5800,16 +5800,16 @@
         </is>
       </c>
       <c r="B244" s="2" t="n">
-        <v>43219</v>
+        <v>43239</v>
       </c>
       <c r="C244" t="n">
-        <v>1136588</v>
+        <v>1136613</v>
       </c>
       <c r="D244" t="n">
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F244" t="n">
         <v>1</v>
@@ -5822,16 +5822,16 @@
         </is>
       </c>
       <c r="B245" s="2" t="n">
-        <v>43219</v>
+        <v>43239</v>
       </c>
       <c r="C245" t="n">
-        <v>1136588</v>
+        <v>1136613</v>
       </c>
       <c r="D245" t="n">
         <v>2</v>
       </c>
       <c r="E245" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F245" t="n">
         <v>1</v>
@@ -5844,7 +5844,7 @@
         </is>
       </c>
       <c r="B246" s="2" t="n">
-        <v>43228</v>
+        <v>43317</v>
       </c>
       <c r="C246" t="n">
         <v>1136600</v>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="B247" s="2" t="n">
-        <v>43228</v>
+        <v>43317</v>
       </c>
       <c r="C247" t="n">
         <v>1136600</v>
@@ -5888,19 +5888,19 @@
         </is>
       </c>
       <c r="B248" s="2" t="n">
-        <v>43231</v>
+        <v>43408</v>
       </c>
       <c r="C248" t="n">
-        <v>1136603</v>
+        <v>1136566</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -5910,19 +5910,19 @@
         </is>
       </c>
       <c r="B249" s="2" t="n">
-        <v>43231</v>
+        <v>43408</v>
       </c>
       <c r="C249" t="n">
-        <v>1136603</v>
+        <v>1136566</v>
       </c>
       <c r="D249" t="n">
         <v>2</v>
       </c>
       <c r="E249" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F249" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="B250" s="2" t="n">
-        <v>43239</v>
+        <v>43409</v>
       </c>
       <c r="C250" t="n">
-        <v>1136613</v>
+        <v>1136603</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F250" t="n">
         <v>1</v>
@@ -5954,19 +5954,19 @@
         </is>
       </c>
       <c r="B251" s="2" t="n">
-        <v>43239</v>
+        <v>43409</v>
       </c>
       <c r="C251" t="n">
-        <v>1136613</v>
+        <v>1136603</v>
       </c>
       <c r="D251" t="n">
         <v>2</v>
       </c>
       <c r="E251" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
@@ -5976,19 +5976,19 @@
         </is>
       </c>
       <c r="B252" s="2" t="n">
-        <v>43549</v>
+        <v>43500</v>
       </c>
       <c r="C252" t="n">
-        <v>1175359</v>
+        <v>1175369</v>
       </c>
       <c r="D252" t="n">
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -5998,16 +5998,16 @@
         </is>
       </c>
       <c r="B253" s="2" t="n">
-        <v>43549</v>
+        <v>43500</v>
       </c>
       <c r="C253" t="n">
-        <v>1175359</v>
+        <v>1175369</v>
       </c>
       <c r="D253" t="n">
         <v>2</v>
       </c>
       <c r="E253" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -6020,19 +6020,19 @@
         </is>
       </c>
       <c r="B254" s="2" t="n">
-        <v>43557</v>
+        <v>43549</v>
       </c>
       <c r="C254" t="n">
-        <v>1175369</v>
+        <v>1175359</v>
       </c>
       <c r="D254" t="n">
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B255" s="2" t="n">
-        <v>43557</v>
+        <v>43549</v>
       </c>
       <c r="C255" t="n">
-        <v>1175369</v>
+        <v>1175359</v>
       </c>
       <c r="D255" t="n">
         <v>2</v>
       </c>
       <c r="E255" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         </is>
       </c>
       <c r="B256" s="2" t="n">
-        <v>43562</v>
+        <v>43575</v>
       </c>
       <c r="C256" t="n">
-        <v>1178396</v>
+        <v>1178411</v>
       </c>
       <c r="D256" t="n">
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F256" t="n">
         <v>1</v>
@@ -6086,19 +6086,19 @@
         </is>
       </c>
       <c r="B257" s="2" t="n">
-        <v>43562</v>
+        <v>43575</v>
       </c>
       <c r="C257" t="n">
-        <v>1178396</v>
+        <v>1178411</v>
       </c>
       <c r="D257" t="n">
         <v>2</v>
       </c>
       <c r="E257" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -6108,19 +6108,19 @@
         </is>
       </c>
       <c r="B258" s="2" t="n">
-        <v>43566</v>
+        <v>43577</v>
       </c>
       <c r="C258" t="n">
-        <v>1178400</v>
+        <v>1178415</v>
       </c>
       <c r="D258" t="n">
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -6130,19 +6130,19 @@
         </is>
       </c>
       <c r="B259" s="2" t="n">
-        <v>43566</v>
+        <v>43577</v>
       </c>
       <c r="C259" t="n">
-        <v>1178400</v>
+        <v>1178415</v>
       </c>
       <c r="D259" t="n">
         <v>2</v>
       </c>
       <c r="E259" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F259" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -6152,16 +6152,16 @@
         </is>
       </c>
       <c r="B260" s="2" t="n">
-        <v>43575</v>
+        <v>43582</v>
       </c>
       <c r="C260" t="n">
-        <v>1178411</v>
+        <v>1178420</v>
       </c>
       <c r="D260" t="n">
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F260" t="n">
         <v>1</v>
@@ -6174,10 +6174,10 @@
         </is>
       </c>
       <c r="B261" s="2" t="n">
-        <v>43575</v>
+        <v>43582</v>
       </c>
       <c r="C261" t="n">
-        <v>1178411</v>
+        <v>1178420</v>
       </c>
       <c r="D261" t="n">
         <v>2</v>
@@ -6186,7 +6186,7 @@
         <v>60</v>
       </c>
       <c r="F261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -6196,16 +6196,16 @@
         </is>
       </c>
       <c r="B262" s="2" t="n">
-        <v>43577</v>
+        <v>43650</v>
       </c>
       <c r="C262" t="n">
-        <v>1178415</v>
+        <v>1178396</v>
       </c>
       <c r="D262" t="n">
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F262" t="n">
         <v>1</v>
@@ -6218,16 +6218,16 @@
         </is>
       </c>
       <c r="B263" s="2" t="n">
-        <v>43577</v>
+        <v>43650</v>
       </c>
       <c r="C263" t="n">
-        <v>1178415</v>
+        <v>1178396</v>
       </c>
       <c r="D263" t="n">
         <v>2</v>
       </c>
       <c r="E263" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
@@ -6240,19 +6240,19 @@
         </is>
       </c>
       <c r="B264" s="2" t="n">
-        <v>43582</v>
+        <v>43773</v>
       </c>
       <c r="C264" t="n">
-        <v>1178420</v>
+        <v>1178400</v>
       </c>
       <c r="D264" t="n">
         <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F264" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -6262,19 +6262,19 @@
         </is>
       </c>
       <c r="B265" s="2" t="n">
-        <v>43582</v>
+        <v>43773</v>
       </c>
       <c r="C265" t="n">
-        <v>1178420</v>
+        <v>1178400</v>
       </c>
       <c r="D265" t="n">
         <v>2</v>
       </c>
       <c r="E265" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266">
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="B266" s="2" t="n">
-        <v>44096</v>
+        <v>43900</v>
       </c>
       <c r="C266" t="n">
-        <v>1216496</v>
+        <v>1216515</v>
       </c>
       <c r="D266" t="n">
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F266" t="n">
         <v>1</v>
@@ -6306,19 +6306,19 @@
         </is>
       </c>
       <c r="B267" s="2" t="n">
-        <v>44096</v>
+        <v>43900</v>
       </c>
       <c r="C267" t="n">
-        <v>1216496</v>
+        <v>1216515</v>
       </c>
       <c r="D267" t="n">
         <v>2</v>
       </c>
       <c r="E267" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -6328,19 +6328,19 @@
         </is>
       </c>
       <c r="B268" s="2" t="n">
-        <v>44101</v>
+        <v>43901</v>
       </c>
       <c r="C268" t="n">
-        <v>1216527</v>
+        <v>1216495</v>
       </c>
       <c r="D268" t="n">
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -6350,19 +6350,19 @@
         </is>
       </c>
       <c r="B269" s="2" t="n">
-        <v>44101</v>
+        <v>43901</v>
       </c>
       <c r="C269" t="n">
-        <v>1216527</v>
+        <v>1216495</v>
       </c>
       <c r="D269" t="n">
         <v>2</v>
       </c>
       <c r="E269" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -6372,19 +6372,19 @@
         </is>
       </c>
       <c r="B270" s="2" t="n">
-        <v>44107</v>
+        <v>43931</v>
       </c>
       <c r="C270" t="n">
-        <v>1216515</v>
+        <v>1216538</v>
       </c>
       <c r="D270" t="n">
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -6394,16 +6394,16 @@
         </is>
       </c>
       <c r="B271" s="2" t="n">
-        <v>44107</v>
+        <v>43931</v>
       </c>
       <c r="C271" t="n">
-        <v>1216515</v>
+        <v>1216538</v>
       </c>
       <c r="D271" t="n">
         <v>2</v>
       </c>
       <c r="E271" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F271" t="n">
         <v>1</v>
@@ -6416,19 +6416,19 @@
         </is>
       </c>
       <c r="B272" s="2" t="n">
-        <v>44108</v>
+        <v>44084</v>
       </c>
       <c r="C272" t="n">
-        <v>1216538</v>
+        <v>1216500</v>
       </c>
       <c r="D272" t="n">
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -6438,16 +6438,16 @@
         </is>
       </c>
       <c r="B273" s="2" t="n">
-        <v>44108</v>
+        <v>44084</v>
       </c>
       <c r="C273" t="n">
-        <v>1216538</v>
+        <v>1216500</v>
       </c>
       <c r="D273" t="n">
         <v>2</v>
       </c>
       <c r="E273" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F273" t="n">
         <v>1</v>
@@ -6460,19 +6460,19 @@
         </is>
       </c>
       <c r="B274" s="2" t="n">
-        <v>44113</v>
+        <v>44096</v>
       </c>
       <c r="C274" t="n">
-        <v>1216500</v>
+        <v>1216496</v>
       </c>
       <c r="D274" t="n">
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -6482,19 +6482,19 @@
         </is>
       </c>
       <c r="B275" s="2" t="n">
-        <v>44113</v>
+        <v>44096</v>
       </c>
       <c r="C275" t="n">
-        <v>1216500</v>
+        <v>1216496</v>
       </c>
       <c r="D275" t="n">
         <v>2</v>
       </c>
       <c r="E275" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -6504,16 +6504,16 @@
         </is>
       </c>
       <c r="B276" s="2" t="n">
-        <v>44116</v>
+        <v>44101</v>
       </c>
       <c r="C276" t="n">
-        <v>1216540</v>
+        <v>1216527</v>
       </c>
       <c r="D276" t="n">
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -6526,16 +6526,16 @@
         </is>
       </c>
       <c r="B277" s="2" t="n">
-        <v>44116</v>
+        <v>44101</v>
       </c>
       <c r="C277" t="n">
-        <v>1216540</v>
+        <v>1216527</v>
       </c>
       <c r="D277" t="n">
         <v>2</v>
       </c>
       <c r="E277" t="n">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F277" t="n">
         <v>1</v>
@@ -6768,19 +6768,19 @@
         </is>
       </c>
       <c r="B288" s="2" t="n">
-        <v>44138</v>
+        <v>44175</v>
       </c>
       <c r="C288" t="n">
-        <v>1216495</v>
+        <v>1216540</v>
       </c>
       <c r="D288" t="n">
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -6790,19 +6790,19 @@
         </is>
       </c>
       <c r="B289" s="2" t="n">
-        <v>44138</v>
+        <v>44175</v>
       </c>
       <c r="C289" t="n">
-        <v>1216495</v>
+        <v>1216540</v>
       </c>
       <c r="D289" t="n">
         <v>2</v>
       </c>
       <c r="E289" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -6812,16 +6812,16 @@
         </is>
       </c>
       <c r="B290" s="2" t="n">
-        <v>44093</v>
+        <v>43840</v>
       </c>
       <c r="C290" t="n">
-        <v>1216492</v>
+        <v>1216503</v>
       </c>
       <c r="D290" t="n">
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F290" t="n">
         <v>2</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B291" s="2" t="n">
-        <v>44093</v>
+        <v>43840</v>
       </c>
       <c r="C291" t="n">
-        <v>1216492</v>
+        <v>1216503</v>
       </c>
       <c r="D291" t="n">
         <v>2</v>
       </c>
       <c r="E291" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F291" t="n">
         <v>2</v>
@@ -6856,16 +6856,16 @@
         </is>
       </c>
       <c r="B292" s="2" t="n">
-        <v>44097</v>
+        <v>43841</v>
       </c>
       <c r="C292" t="n">
-        <v>1216508</v>
+        <v>1216506</v>
       </c>
       <c r="D292" t="n">
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F292" t="n">
         <v>1</v>
@@ -6878,19 +6878,19 @@
         </is>
       </c>
       <c r="B293" s="2" t="n">
-        <v>44097</v>
+        <v>43841</v>
       </c>
       <c r="C293" t="n">
-        <v>1216508</v>
+        <v>1216506</v>
       </c>
       <c r="D293" t="n">
         <v>2</v>
       </c>
       <c r="E293" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6900,10 +6900,10 @@
         </is>
       </c>
       <c r="B294" s="2" t="n">
-        <v>44100</v>
+        <v>43872</v>
       </c>
       <c r="C294" t="n">
-        <v>1216545</v>
+        <v>1216505</v>
       </c>
       <c r="D294" t="n">
         <v>1</v>
@@ -6922,19 +6922,19 @@
         </is>
       </c>
       <c r="B295" s="2" t="n">
-        <v>44100</v>
+        <v>43872</v>
       </c>
       <c r="C295" t="n">
-        <v>1216545</v>
+        <v>1216505</v>
       </c>
       <c r="D295" t="n">
         <v>2</v>
       </c>
       <c r="E295" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -6944,10 +6944,10 @@
         </is>
       </c>
       <c r="B296" s="2" t="n">
-        <v>44103</v>
+        <v>43900</v>
       </c>
       <c r="C296" t="n">
-        <v>1216532</v>
+        <v>1216514</v>
       </c>
       <c r="D296" t="n">
         <v>1</v>
@@ -6956,7 +6956,7 @@
         <v>38</v>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -6966,16 +6966,16 @@
         </is>
       </c>
       <c r="B297" s="2" t="n">
-        <v>44103</v>
+        <v>43900</v>
       </c>
       <c r="C297" t="n">
-        <v>1216532</v>
+        <v>1216514</v>
       </c>
       <c r="D297" t="n">
         <v>2</v>
       </c>
       <c r="E297" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F297" t="n">
         <v>1</v>
@@ -6988,19 +6988,19 @@
         </is>
       </c>
       <c r="B298" s="2" t="n">
-        <v>44105</v>
+        <v>43992</v>
       </c>
       <c r="C298" t="n">
-        <v>1216503</v>
+        <v>1216511</v>
       </c>
       <c r="D298" t="n">
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -7010,19 +7010,19 @@
         </is>
       </c>
       <c r="B299" s="2" t="n">
-        <v>44105</v>
+        <v>43992</v>
       </c>
       <c r="C299" t="n">
-        <v>1216503</v>
+        <v>1216511</v>
       </c>
       <c r="D299" t="n">
         <v>2</v>
       </c>
       <c r="E299" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -7032,19 +7032,19 @@
         </is>
       </c>
       <c r="B300" s="2" t="n">
-        <v>44107</v>
+        <v>43993</v>
       </c>
       <c r="C300" t="n">
-        <v>1216514</v>
+        <v>1237178</v>
       </c>
       <c r="D300" t="n">
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -7054,19 +7054,19 @@
         </is>
       </c>
       <c r="B301" s="2" t="n">
-        <v>44107</v>
+        <v>43993</v>
       </c>
       <c r="C301" t="n">
-        <v>1216514</v>
+        <v>1237178</v>
       </c>
       <c r="D301" t="n">
         <v>2</v>
       </c>
       <c r="E301" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -7076,16 +7076,16 @@
         </is>
       </c>
       <c r="B302" s="2" t="n">
-        <v>44110</v>
+        <v>44022</v>
       </c>
       <c r="C302" t="n">
-        <v>1216511</v>
+        <v>1216501</v>
       </c>
       <c r="D302" t="n">
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F302" t="n">
         <v>1</v>
@@ -7098,19 +7098,19 @@
         </is>
       </c>
       <c r="B303" s="2" t="n">
-        <v>44110</v>
+        <v>44022</v>
       </c>
       <c r="C303" t="n">
-        <v>1216511</v>
+        <v>1216501</v>
       </c>
       <c r="D303" t="n">
         <v>2</v>
       </c>
       <c r="E303" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F303" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -7120,19 +7120,19 @@
         </is>
       </c>
       <c r="B304" s="2" t="n">
-        <v>44111</v>
+        <v>44054</v>
       </c>
       <c r="C304" t="n">
-        <v>1216501</v>
+        <v>1237180</v>
       </c>
       <c r="D304" t="n">
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -7142,19 +7142,19 @@
         </is>
       </c>
       <c r="B305" s="2" t="n">
-        <v>44111</v>
+        <v>44054</v>
       </c>
       <c r="C305" t="n">
-        <v>1216501</v>
+        <v>1237180</v>
       </c>
       <c r="D305" t="n">
         <v>2</v>
       </c>
       <c r="E305" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F305" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306">
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="B306" s="2" t="n">
-        <v>44114</v>
+        <v>44093</v>
       </c>
       <c r="C306" t="n">
-        <v>1216523</v>
+        <v>1216492</v>
       </c>
       <c r="D306" t="n">
         <v>1</v>
       </c>
       <c r="E306" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F306" t="n">
         <v>2</v>
@@ -7186,19 +7186,19 @@
         </is>
       </c>
       <c r="B307" s="2" t="n">
-        <v>44114</v>
+        <v>44093</v>
       </c>
       <c r="C307" t="n">
-        <v>1216523</v>
+        <v>1216492</v>
       </c>
       <c r="D307" t="n">
         <v>2</v>
       </c>
       <c r="E307" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -7208,19 +7208,19 @@
         </is>
       </c>
       <c r="B308" s="2" t="n">
-        <v>44115</v>
+        <v>44097</v>
       </c>
       <c r="C308" t="n">
-        <v>1216529</v>
+        <v>1216508</v>
       </c>
       <c r="D308" t="n">
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -7230,19 +7230,19 @@
         </is>
       </c>
       <c r="B309" s="2" t="n">
-        <v>44115</v>
+        <v>44097</v>
       </c>
       <c r="C309" t="n">
-        <v>1216529</v>
+        <v>1216508</v>
       </c>
       <c r="D309" t="n">
         <v>2</v>
       </c>
       <c r="E309" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -7252,19 +7252,19 @@
         </is>
       </c>
       <c r="B310" s="2" t="n">
-        <v>44120</v>
+        <v>44100</v>
       </c>
       <c r="C310" t="n">
-        <v>1216526</v>
+        <v>1216545</v>
       </c>
       <c r="D310" t="n">
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -7274,19 +7274,19 @@
         </is>
       </c>
       <c r="B311" s="2" t="n">
-        <v>44120</v>
+        <v>44100</v>
       </c>
       <c r="C311" t="n">
-        <v>1216526</v>
+        <v>1216545</v>
       </c>
       <c r="D311" t="n">
         <v>2</v>
       </c>
       <c r="E311" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -7296,19 +7296,19 @@
         </is>
       </c>
       <c r="B312" s="2" t="n">
-        <v>44122</v>
+        <v>44103</v>
       </c>
       <c r="C312" t="n">
-        <v>1216512</v>
+        <v>1216532</v>
       </c>
       <c r="D312" t="n">
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -7318,19 +7318,19 @@
         </is>
       </c>
       <c r="B313" s="2" t="n">
-        <v>44122</v>
+        <v>44103</v>
       </c>
       <c r="C313" t="n">
-        <v>1216512</v>
+        <v>1216532</v>
       </c>
       <c r="D313" t="n">
         <v>2</v>
       </c>
       <c r="E313" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -7340,16 +7340,16 @@
         </is>
       </c>
       <c r="B314" s="2" t="n">
-        <v>44123</v>
+        <v>44114</v>
       </c>
       <c r="C314" t="n">
-        <v>1216533</v>
+        <v>1216523</v>
       </c>
       <c r="D314" t="n">
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F314" t="n">
         <v>2</v>
@@ -7362,19 +7362,19 @@
         </is>
       </c>
       <c r="B315" s="2" t="n">
-        <v>44123</v>
+        <v>44114</v>
       </c>
       <c r="C315" t="n">
-        <v>1216533</v>
+        <v>1216523</v>
       </c>
       <c r="D315" t="n">
         <v>2</v>
       </c>
       <c r="E315" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -7384,19 +7384,19 @@
         </is>
       </c>
       <c r="B316" s="2" t="n">
-        <v>44125</v>
+        <v>44120</v>
       </c>
       <c r="C316" t="n">
-        <v>1216494</v>
+        <v>1216526</v>
       </c>
       <c r="D316" t="n">
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F316" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -7406,16 +7406,16 @@
         </is>
       </c>
       <c r="B317" s="2" t="n">
-        <v>44125</v>
+        <v>44120</v>
       </c>
       <c r="C317" t="n">
-        <v>1216494</v>
+        <v>1216526</v>
       </c>
       <c r="D317" t="n">
         <v>2</v>
       </c>
       <c r="E317" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
@@ -7428,19 +7428,19 @@
         </is>
       </c>
       <c r="B318" s="2" t="n">
-        <v>44128</v>
+        <v>44122</v>
       </c>
       <c r="C318" t="n">
-        <v>1216497</v>
+        <v>1216512</v>
       </c>
       <c r="D318" t="n">
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -7450,19 +7450,19 @@
         </is>
       </c>
       <c r="B319" s="2" t="n">
-        <v>44128</v>
+        <v>44122</v>
       </c>
       <c r="C319" t="n">
-        <v>1216497</v>
+        <v>1216512</v>
       </c>
       <c r="D319" t="n">
         <v>2</v>
       </c>
       <c r="E319" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -7472,19 +7472,19 @@
         </is>
       </c>
       <c r="B320" s="2" t="n">
-        <v>44129</v>
+        <v>44123</v>
       </c>
       <c r="C320" t="n">
-        <v>1216541</v>
+        <v>1216533</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
       </c>
       <c r="E320" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -7494,19 +7494,19 @@
         </is>
       </c>
       <c r="B321" s="2" t="n">
-        <v>44129</v>
+        <v>44123</v>
       </c>
       <c r="C321" t="n">
-        <v>1216541</v>
+        <v>1216533</v>
       </c>
       <c r="D321" t="n">
         <v>2</v>
       </c>
       <c r="E321" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -7516,19 +7516,19 @@
         </is>
       </c>
       <c r="B322" s="2" t="n">
-        <v>44132</v>
+        <v>44125</v>
       </c>
       <c r="C322" t="n">
-        <v>1216499</v>
+        <v>1216494</v>
       </c>
       <c r="D322" t="n">
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323">
@@ -7538,19 +7538,19 @@
         </is>
       </c>
       <c r="B323" s="2" t="n">
-        <v>44132</v>
+        <v>44125</v>
       </c>
       <c r="C323" t="n">
-        <v>1216499</v>
+        <v>1216494</v>
       </c>
       <c r="D323" t="n">
         <v>2</v>
       </c>
       <c r="E323" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -7560,19 +7560,19 @@
         </is>
       </c>
       <c r="B324" s="2" t="n">
-        <v>44134</v>
+        <v>44128</v>
       </c>
       <c r="C324" t="n">
-        <v>1216537</v>
+        <v>1216497</v>
       </c>
       <c r="D324" t="n">
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -7582,19 +7582,19 @@
         </is>
       </c>
       <c r="B325" s="2" t="n">
-        <v>44134</v>
+        <v>44128</v>
       </c>
       <c r="C325" t="n">
-        <v>1216537</v>
+        <v>1216497</v>
       </c>
       <c r="D325" t="n">
         <v>2</v>
       </c>
       <c r="E325" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -7604,16 +7604,16 @@
         </is>
       </c>
       <c r="B326" s="2" t="n">
-        <v>44136</v>
+        <v>44129</v>
       </c>
       <c r="C326" t="n">
-        <v>1216506</v>
+        <v>1216541</v>
       </c>
       <c r="D326" t="n">
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F326" t="n">
         <v>1</v>
@@ -7626,19 +7626,19 @@
         </is>
       </c>
       <c r="B327" s="2" t="n">
-        <v>44136</v>
+        <v>44129</v>
       </c>
       <c r="C327" t="n">
-        <v>1216506</v>
+        <v>1216541</v>
       </c>
       <c r="D327" t="n">
         <v>2</v>
       </c>
       <c r="E327" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -7648,19 +7648,19 @@
         </is>
       </c>
       <c r="B328" s="2" t="n">
-        <v>44137</v>
+        <v>44132</v>
       </c>
       <c r="C328" t="n">
-        <v>1216505</v>
+        <v>1216499</v>
       </c>
       <c r="D328" t="n">
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7670,16 +7670,16 @@
         </is>
       </c>
       <c r="B329" s="2" t="n">
-        <v>44137</v>
+        <v>44132</v>
       </c>
       <c r="C329" t="n">
-        <v>1216505</v>
+        <v>1216499</v>
       </c>
       <c r="D329" t="n">
         <v>2</v>
       </c>
       <c r="E329" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F329" t="n">
         <v>1</v>
@@ -7692,19 +7692,19 @@
         </is>
       </c>
       <c r="B330" s="2" t="n">
-        <v>44141</v>
+        <v>44134</v>
       </c>
       <c r="C330" t="n">
-        <v>1237178</v>
+        <v>1216537</v>
       </c>
       <c r="D330" t="n">
         <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -7714,19 +7714,19 @@
         </is>
       </c>
       <c r="B331" s="2" t="n">
-        <v>44141</v>
+        <v>44134</v>
       </c>
       <c r="C331" t="n">
-        <v>1237178</v>
+        <v>1216537</v>
       </c>
       <c r="D331" t="n">
         <v>2</v>
       </c>
       <c r="E331" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -7736,19 +7736,19 @@
         </is>
       </c>
       <c r="B332" s="2" t="n">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="C332" t="n">
-        <v>1237180</v>
+        <v>1216529</v>
       </c>
       <c r="D332" t="n">
         <v>1</v>
       </c>
       <c r="E332" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -7758,19 +7758,19 @@
         </is>
       </c>
       <c r="B333" s="2" t="n">
-        <v>44143</v>
+        <v>44145</v>
       </c>
       <c r="C333" t="n">
-        <v>1237180</v>
+        <v>1216529</v>
       </c>
       <c r="D333" t="n">
         <v>2</v>
       </c>
       <c r="E333" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F333" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B334" s="2" t="n">
-        <v>43197</v>
+        <v>43204</v>
       </c>
       <c r="C334" t="n">
-        <v>1136561</v>
+        <v>1136569</v>
       </c>
       <c r="D334" t="n">
         <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -7802,19 +7802,19 @@
         </is>
       </c>
       <c r="B335" s="2" t="n">
-        <v>43197</v>
+        <v>43204</v>
       </c>
       <c r="C335" t="n">
-        <v>1136561</v>
+        <v>1136569</v>
       </c>
       <c r="D335" t="n">
         <v>2</v>
       </c>
       <c r="E335" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -7824,19 +7824,19 @@
         </is>
       </c>
       <c r="B336" s="2" t="n">
-        <v>43204</v>
+        <v>43207</v>
       </c>
       <c r="C336" t="n">
-        <v>1136569</v>
+        <v>1136574</v>
       </c>
       <c r="D336" t="n">
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -7846,19 +7846,19 @@
         </is>
       </c>
       <c r="B337" s="2" t="n">
-        <v>43204</v>
+        <v>43207</v>
       </c>
       <c r="C337" t="n">
-        <v>1136569</v>
+        <v>1136574</v>
       </c>
       <c r="D337" t="n">
         <v>2</v>
       </c>
       <c r="E337" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -7868,19 +7868,19 @@
         </is>
       </c>
       <c r="B338" s="2" t="n">
-        <v>43207</v>
+        <v>43214</v>
       </c>
       <c r="C338" t="n">
-        <v>1136574</v>
+        <v>1136583</v>
       </c>
       <c r="D338" t="n">
         <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F338" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339">
@@ -7890,19 +7890,19 @@
         </is>
       </c>
       <c r="B339" s="2" t="n">
-        <v>43207</v>
+        <v>43214</v>
       </c>
       <c r="C339" t="n">
-        <v>1136574</v>
+        <v>1136583</v>
       </c>
       <c r="D339" t="n">
         <v>2</v>
       </c>
       <c r="E339" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F339" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -7912,10 +7912,10 @@
         </is>
       </c>
       <c r="B340" s="2" t="n">
-        <v>43214</v>
+        <v>43233</v>
       </c>
       <c r="C340" t="n">
-        <v>1136583</v>
+        <v>1136607</v>
       </c>
       <c r="D340" t="n">
         <v>1</v>
@@ -7924,7 +7924,7 @@
         <v>51</v>
       </c>
       <c r="F340" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -7934,19 +7934,19 @@
         </is>
       </c>
       <c r="B341" s="2" t="n">
-        <v>43214</v>
+        <v>43233</v>
       </c>
       <c r="C341" t="n">
-        <v>1136583</v>
+        <v>1136607</v>
       </c>
       <c r="D341" t="n">
         <v>2</v>
       </c>
       <c r="E341" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F341" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -7956,19 +7956,19 @@
         </is>
       </c>
       <c r="B342" s="2" t="n">
-        <v>43226</v>
+        <v>43236</v>
       </c>
       <c r="C342" t="n">
-        <v>1136597</v>
+        <v>1136610</v>
       </c>
       <c r="D342" t="n">
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -7978,19 +7978,19 @@
         </is>
       </c>
       <c r="B343" s="2" t="n">
-        <v>43226</v>
+        <v>43236</v>
       </c>
       <c r="C343" t="n">
-        <v>1136597</v>
+        <v>1136610</v>
       </c>
       <c r="D343" t="n">
         <v>2</v>
       </c>
       <c r="E343" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -8000,19 +8000,19 @@
         </is>
       </c>
       <c r="B344" s="2" t="n">
-        <v>43233</v>
+        <v>43242</v>
       </c>
       <c r="C344" t="n">
-        <v>1136607</v>
+        <v>1136617</v>
       </c>
       <c r="D344" t="n">
         <v>1</v>
       </c>
       <c r="E344" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -8022,19 +8022,19 @@
         </is>
       </c>
       <c r="B345" s="2" t="n">
-        <v>43233</v>
+        <v>43242</v>
       </c>
       <c r="C345" t="n">
-        <v>1136607</v>
+        <v>1136617</v>
       </c>
       <c r="D345" t="n">
         <v>2</v>
       </c>
       <c r="E345" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F345" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -8044,19 +8044,19 @@
         </is>
       </c>
       <c r="B346" s="2" t="n">
-        <v>43236</v>
+        <v>43247</v>
       </c>
       <c r="C346" t="n">
-        <v>1136610</v>
+        <v>1136620</v>
       </c>
       <c r="D346" t="n">
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F346" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -8066,16 +8066,16 @@
         </is>
       </c>
       <c r="B347" s="2" t="n">
-        <v>43236</v>
+        <v>43247</v>
       </c>
       <c r="C347" t="n">
-        <v>1136610</v>
+        <v>1136620</v>
       </c>
       <c r="D347" t="n">
         <v>2</v>
       </c>
       <c r="E347" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F347" t="n">
         <v>1</v>
@@ -8088,19 +8088,19 @@
         </is>
       </c>
       <c r="B348" s="2" t="n">
-        <v>43242</v>
+        <v>43256</v>
       </c>
       <c r="C348" t="n">
-        <v>1136617</v>
+        <v>1136597</v>
       </c>
       <c r="D348" t="n">
         <v>1</v>
       </c>
       <c r="E348" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -8110,19 +8110,19 @@
         </is>
       </c>
       <c r="B349" s="2" t="n">
-        <v>43242</v>
+        <v>43256</v>
       </c>
       <c r="C349" t="n">
-        <v>1136617</v>
+        <v>1136597</v>
       </c>
       <c r="D349" t="n">
         <v>2</v>
       </c>
       <c r="E349" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -8132,19 +8132,19 @@
         </is>
       </c>
       <c r="B350" s="2" t="n">
-        <v>43247</v>
+        <v>43285</v>
       </c>
       <c r="C350" t="n">
-        <v>1136620</v>
+        <v>1136561</v>
       </c>
       <c r="D350" t="n">
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -8154,19 +8154,19 @@
         </is>
       </c>
       <c r="B351" s="2" t="n">
-        <v>43247</v>
+        <v>43285</v>
       </c>
       <c r="C351" t="n">
-        <v>1136620</v>
+        <v>1136561</v>
       </c>
       <c r="D351" t="n">
         <v>2</v>
       </c>
       <c r="E351" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -8176,19 +8176,19 @@
         </is>
       </c>
       <c r="B352" s="2" t="n">
-        <v>43548</v>
+        <v>43501</v>
       </c>
       <c r="C352" t="n">
-        <v>1175358</v>
+        <v>1178426</v>
       </c>
       <c r="D352" t="n">
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -8198,19 +8198,19 @@
         </is>
       </c>
       <c r="B353" s="2" t="n">
-        <v>43548</v>
+        <v>43501</v>
       </c>
       <c r="C353" t="n">
-        <v>1175358</v>
+        <v>1178426</v>
       </c>
       <c r="D353" t="n">
         <v>2</v>
       </c>
       <c r="E353" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -8220,7 +8220,7 @@
         </is>
       </c>
       <c r="B354" s="2" t="n">
-        <v>43558</v>
+        <v>43528</v>
       </c>
       <c r="C354" t="n">
         <v>1175370</v>
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="B355" s="2" t="n">
-        <v>43558</v>
+        <v>43528</v>
       </c>
       <c r="C355" t="n">
         <v>1175370</v>
@@ -8264,19 +8264,19 @@
         </is>
       </c>
       <c r="B356" s="2" t="n">
-        <v>43565</v>
+        <v>43548</v>
       </c>
       <c r="C356" t="n">
-        <v>1178399</v>
+        <v>1175358</v>
       </c>
       <c r="D356" t="n">
         <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -8286,19 +8286,19 @@
         </is>
       </c>
       <c r="B357" s="2" t="n">
-        <v>43565</v>
+        <v>43548</v>
       </c>
       <c r="C357" t="n">
-        <v>1178399</v>
+        <v>1175358</v>
       </c>
       <c r="D357" t="n">
         <v>2</v>
       </c>
       <c r="E357" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F357" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -8396,19 +8396,19 @@
         </is>
       </c>
       <c r="B362" s="2" t="n">
-        <v>43587</v>
+        <v>43590</v>
       </c>
       <c r="C362" t="n">
-        <v>1178426</v>
+        <v>1178431</v>
       </c>
       <c r="D362" t="n">
         <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -8418,19 +8418,19 @@
         </is>
       </c>
       <c r="B363" s="2" t="n">
-        <v>43587</v>
+        <v>43590</v>
       </c>
       <c r="C363" t="n">
-        <v>1178426</v>
+        <v>1178431</v>
       </c>
       <c r="D363" t="n">
         <v>2</v>
       </c>
       <c r="E363" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -8440,16 +8440,16 @@
         </is>
       </c>
       <c r="B364" s="2" t="n">
-        <v>43590</v>
+        <v>43742</v>
       </c>
       <c r="C364" t="n">
-        <v>1178431</v>
+        <v>1178399</v>
       </c>
       <c r="D364" t="n">
         <v>1</v>
       </c>
       <c r="E364" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
@@ -8462,19 +8462,19 @@
         </is>
       </c>
       <c r="B365" s="2" t="n">
-        <v>43590</v>
+        <v>43742</v>
       </c>
       <c r="C365" t="n">
-        <v>1178431</v>
+        <v>1178399</v>
       </c>
       <c r="D365" t="n">
         <v>2</v>
       </c>
       <c r="E365" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="B366" s="2" t="n">
-        <v>44296</v>
+        <v>44473</v>
       </c>
       <c r="C366" t="n">
         <v>1254059</v>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="B367" s="2" t="n">
-        <v>44296</v>
+        <v>44473</v>
       </c>
       <c r="C367" t="n">
         <v>1254059</v>
